--- a/Notas Data Wrangling.xlsx
+++ b/Notas Data Wrangling.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR29\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR29\Documents\GitHub\data-wrangling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59FDBC-11AD-4BE1-801B-2D3A34FFD9F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6565C21F-D6CB-48EB-ADA8-BD91D0401810}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" xr2:uid="{46607128-50EE-4F7C-8DA4-5EF31434DE3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="1" xr2:uid="{46607128-50EE-4F7C-8DA4-5EF31434DE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab1" sheetId="2" r:id="rId2"/>
+    <sheet name="Lab2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>Carné</t>
   </si>
@@ -73,13 +75,116 @@
   </si>
   <si>
     <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Lab1 - Importar y juntar archivos CSV y Excel</t>
+  </si>
+  <si>
+    <t>Preparación de data</t>
+  </si>
+  <si>
+    <t>Entendimiento y comprensión de data</t>
+  </si>
+  <si>
+    <t>Modelo / Cálculos</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Marcos Salvador Amaya Malin</t>
+  </si>
+  <si>
+    <t>Julio Esteban Berdúo Aragón</t>
+  </si>
+  <si>
+    <t>Rodrigo José Cano Cruz</t>
+  </si>
+  <si>
+    <t>Juan José Cartagena Pineda</t>
+  </si>
+  <si>
+    <t>Paula María Cintron Maegli</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Cujcuj Yos</t>
+  </si>
+  <si>
+    <t>Joaquín Antonio Figueroa Carrillo</t>
+  </si>
+  <si>
+    <t>Juan Carlos López Rodríguez</t>
+  </si>
+  <si>
+    <t>Ricardo Javier Mendoza Villatoro</t>
+  </si>
+  <si>
+    <t>Carlos Francisco Morales Hernández</t>
+  </si>
+  <si>
+    <t>Nathalia María Morales Rojas</t>
+  </si>
+  <si>
+    <t>Hanna Paola Prera González</t>
+  </si>
+  <si>
+    <t>Geordie Josue Quiroa Bulnes</t>
+  </si>
+  <si>
+    <t>Luis Angel Tórtola Tejeda</t>
+  </si>
+  <si>
+    <t>5 pts</t>
+  </si>
+  <si>
+    <t>40 pts</t>
+  </si>
+  <si>
+    <t>María Fernanda González Dávila</t>
+  </si>
+  <si>
+    <t>Yuri Alexander Kaffaty Espinoza</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Marcos Rodrigo Cardona Arriola</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Puntos</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Agosto queda con 9 columnas, se tiene que correr el código 2 veces pero no se especifica.</t>
+  </si>
+  <si>
+    <t>No se tiene información de Enero y el resultado no es correcto.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +200,94 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -115,26 +298,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -185,21 +348,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,263 +776,1663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF6D9A2-0FCC-4F0F-B565-A95C3C6EE056}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5">
         <v>20150205</v>
       </c>
-      <c r="N2" s="5">
-        <f>+SUM(B2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5">
-        <f>+N2+O2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C2">
+        <f>+'Lab1'!H5</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O2" s="3">
+        <f>+SUM(C2:N2)</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="3">
+        <f>+O2+P2</f>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
         <v>20150195</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N16" si="0">+SUM(B3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3:P16" si="1">+N3+O3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>20150394</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C3">
+        <f>+'Lab1'!H6</f>
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O18" si="0">+SUM(C3:N3)</f>
+        <v>5</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q18" si="1">+O3+P3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
         <v>20150025</v>
       </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="C4">
+        <f>+'Lab1'!H7</f>
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20160281</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5">
         <v>20130002</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="7"/>
+      <c r="C6">
+        <f>+'Lab1'!H9</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="Q6" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
         <v>20160090</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="7"/>
+      <c r="C7">
+        <f>+'Lab1'!H10</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
         <v>20160825</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="7"/>
+      <c r="C8">
+        <f>+'Lab1'!H11</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="Q8" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
         <v>20160165</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C9">
+        <f>+'Lab1'!H12</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>20180190</v>
+      </c>
+      <c r="C10">
+        <f>+'Lab1'!H13</f>
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8250000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20160198</v>
+      </c>
+      <c r="C11">
+        <f>+'Lab1'!H14</f>
+        <v>3.8</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5">
         <v>20150147</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C12">
+        <f>+'Lab1'!H15</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
         <v>20160580</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C13">
+        <f>+'Lab1'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5">
         <v>20150462</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C14">
+        <f>+'Lab1'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5">
         <v>20160295</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C15">
+        <f>+'Lab1'!H18</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5">
         <v>20150066</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C16">
+        <f>+'Lab1'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5">
         <v>20170481</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="C17">
+        <f>+'Lab1'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
         <v>20160582</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C18">
+        <f>+'Lab1'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N9:N16 N2:N5" formulaRange="1"/>
+    <ignoredError sqref="O2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667968EC-A746-48BC-94A7-AED601EBA8E2}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11">
+        <v>20150205</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12">
+        <v>90</v>
+      </c>
+      <c r="E5" s="12">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
+        <v>100</v>
+      </c>
+      <c r="H5" s="13">
+        <f>+SUMPRODUCT($C$4:$G$4,$C5:$G5)/100*5</f>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="16">
+        <v>20150195</v>
+      </c>
+      <c r="C6" s="16">
+        <v>100</v>
+      </c>
+      <c r="D6" s="16">
+        <v>100</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>100</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" ref="H6:H21" si="0">+SUMPRODUCT($C$4:$G$4,$C6:$G6)/100*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11">
+        <v>20150025</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12">
+        <v>100</v>
+      </c>
+      <c r="E7" s="12">
+        <v>100</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
+        <v>100</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11">
+        <v>20160281</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11">
+        <v>20130002</v>
+      </c>
+      <c r="C9" s="12">
+        <v>100</v>
+      </c>
+      <c r="D9" s="12">
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16">
+        <v>20160090</v>
+      </c>
+      <c r="C10" s="16">
+        <v>100</v>
+      </c>
+      <c r="D10" s="16">
+        <v>100</v>
+      </c>
+      <c r="E10" s="16">
+        <v>100</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>100</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="11">
+        <v>20160825</v>
+      </c>
+      <c r="C11" s="12">
+        <v>100</v>
+      </c>
+      <c r="D11" s="12">
+        <v>100</v>
+      </c>
+      <c r="E11" s="12">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
+        <v>100</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11">
+        <v>20160165</v>
+      </c>
+      <c r="C12" s="12">
+        <v>100</v>
+      </c>
+      <c r="D12" s="12">
+        <v>90</v>
+      </c>
+      <c r="E12" s="12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="11">
+        <v>20180190</v>
+      </c>
+      <c r="C13" s="12">
+        <v>100</v>
+      </c>
+      <c r="D13" s="12">
+        <v>95</v>
+      </c>
+      <c r="E13" s="12">
+        <v>100</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>100</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11">
+        <v>20160198</v>
+      </c>
+      <c r="C14" s="12">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12">
+        <v>80</v>
+      </c>
+      <c r="E14" s="12">
+        <v>100</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11">
+        <v>20150147</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11">
+        <v>20160580</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>20150462</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11">
+        <v>20160295</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="11">
+        <v>20150066</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11">
+        <v>20170481</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20160582</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F16A8D-487F-4CA4-BB33-7FB9D98961B9}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20">
+        <v>7</v>
+      </c>
+      <c r="J1" s="20">
+        <v>8</v>
+      </c>
+      <c r="K1" s="20">
+        <v>9</v>
+      </c>
+      <c r="L1" s="20">
+        <v>10</v>
+      </c>
+      <c r="M1" s="20">
+        <v>11</v>
+      </c>
+      <c r="N1" s="20">
+        <v>12</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20150205</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23">
+        <f t="shared" ref="O2:O18" si="0">+COUNTIFS($C2:$N2,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="14">
+        <f>+ROUNDUP(O2/MAX($O$2:$O$18)*100,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20150195</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="14">
+        <f t="shared" ref="Q3:Q18" si="1">+ROUNDUP(O3/MAX($O$2:$O$18)*100,0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20150025</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P4" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20130002</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="14">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20160090</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20160825</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P7" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
+        <v>20160165</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5">
+        <v>20180190</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5">
+        <v>20160198</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20150147</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <v>20160580</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5">
+        <v>20150462</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5">
+        <v>20160295</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="14">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5">
+        <v>20150066</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20170481</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20160582</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P17" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="24">
+        <v>20160281</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>